--- a/ceph/ceph界面监控管理工具比较.xlsx
+++ b/ceph/ceph界面监控管理工具比较.xlsx
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ceph/ceph界面监控管理工具比较.xlsx
+++ b/ceph/ceph界面监控管理工具比较.xlsx
@@ -630,7 +630,7 @@
   <dimension ref="C4:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
